--- a/OCR/excel_BKI/bki_337202.jpg.xlsx
+++ b/OCR/excel_BKI/bki_337202.jpg.xlsx
@@ -56,7 +56,7 @@
     <t>0.00</t>
   </si>
   <si>
-    <t>42.31</t>
+    <t>42.21</t>
   </si>
   <si>
     <t>2.41</t>
